--- a/TestData/firstFlow/setAutoprovisionAndNIC.xlsx
+++ b/TestData/firstFlow/setAutoprovisionAndNIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\OneForAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31349E-6361-4A6D-8C90-90A276839711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4863F7BE-2F32-47E1-A2C2-2DD5D5B30B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <t>VCenter</t>
   </si>
   <si>
-    <t>Trial 2</t>
+    <t>First Flow</t>
   </si>
 </sst>
 </file>
